--- a/inst/extdata/ext_chla_2021_ours_spec.xlsx
+++ b/inst/extdata/ext_chla_2021_ours_spec.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Public\shivers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JHollist\projects\compeco\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB547D27-F934-4534-9BBD-48E237C72B8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452C6A66-1BCC-4872-BC94-F2E44280DAE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="16200" windowHeight="9360" firstSheet="1" activeTab="6" xr2:uid="{21F00D52-F1B3-4509-877A-79AC8030C001}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{21F00D52-F1B3-4509-877A-79AC8030C001}"/>
   </bookViews>
   <sheets>
     <sheet name="Blank.Sample" sheetId="1" r:id="rId1"/>
-    <sheet name="F.Sample" sheetId="2" r:id="rId2"/>
-    <sheet name="E.Sample" sheetId="3" r:id="rId3"/>
-    <sheet name="D.Sample" sheetId="4" r:id="rId4"/>
-    <sheet name="C.Sample" sheetId="5" r:id="rId5"/>
-    <sheet name="B.Sample" sheetId="6" r:id="rId6"/>
-    <sheet name="A.Sample" sheetId="7" r:id="rId7"/>
+    <sheet name="A.Sample" sheetId="2" r:id="rId2"/>
+    <sheet name="B.Sample" sheetId="7" r:id="rId3"/>
+    <sheet name="C.Sample" sheetId="6" r:id="rId4"/>
+    <sheet name="D.Sample" sheetId="5" r:id="rId5"/>
+    <sheet name="E.Sample" sheetId="4" r:id="rId6"/>
+    <sheet name="F.Sample" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1670,13 +1670,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F50AE46-3AA2-4FDE-93BC-0DC8F4D12161}">
   <dimension ref="A2:B156"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2901,16 +2903,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C5081A-A4AD-40B1-8D8F-60F168488ABA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208DD4D1-CCBD-4B3E-BEBB-CF865DED5A52}">
   <dimension ref="A2:B156"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2926,7 +2930,7 @@
         <v>750</v>
       </c>
       <c r="B6">
-        <v>1.6999999999999999E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2934,7 +2938,7 @@
         <v>749</v>
       </c>
       <c r="B7">
-        <v>1.6000000000000001E-3</v>
+        <v>1.4E-3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2942,7 +2946,7 @@
         <v>748</v>
       </c>
       <c r="B8">
-        <v>1.6999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2950,7 +2954,7 @@
         <v>747</v>
       </c>
       <c r="B9">
-        <v>1.6000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2958,7 +2962,7 @@
         <v>746</v>
       </c>
       <c r="B10">
-        <v>1.5E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2966,7 +2970,7 @@
         <v>745</v>
       </c>
       <c r="B11">
-        <v>1.5E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2974,7 +2978,7 @@
         <v>744</v>
       </c>
       <c r="B12">
-        <v>1.5E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2982,7 +2986,7 @@
         <v>743</v>
       </c>
       <c r="B13">
-        <v>1.5E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2990,7 +2994,7 @@
         <v>742</v>
       </c>
       <c r="B14">
-        <v>1.5E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2998,7 +3002,7 @@
         <v>741</v>
       </c>
       <c r="B15">
-        <v>1.5E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3006,7 +3010,7 @@
         <v>740</v>
       </c>
       <c r="B16">
-        <v>1.5E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3014,7 +3018,7 @@
         <v>739</v>
       </c>
       <c r="B17">
-        <v>1.6000000000000001E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3030,7 +3034,7 @@
         <v>737</v>
       </c>
       <c r="B19">
-        <v>1.5E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3046,7 +3050,7 @@
         <v>735</v>
       </c>
       <c r="B21">
-        <v>1.5E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3054,7 +3058,7 @@
         <v>734</v>
       </c>
       <c r="B22">
-        <v>1.5E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3062,7 +3066,7 @@
         <v>733</v>
       </c>
       <c r="B23">
-        <v>1.5E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3070,7 +3074,7 @@
         <v>732</v>
       </c>
       <c r="B24">
-        <v>1.4E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3078,7 +3082,7 @@
         <v>731</v>
       </c>
       <c r="B25">
-        <v>1.2999999999999999E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3086,7 +3090,7 @@
         <v>730</v>
       </c>
       <c r="B26">
-        <v>1.2999999999999999E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -3094,7 +3098,7 @@
         <v>729</v>
       </c>
       <c r="B27">
-        <v>1.4E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -3102,7 +3106,7 @@
         <v>728</v>
       </c>
       <c r="B28">
-        <v>1.4E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -3110,7 +3114,7 @@
         <v>727</v>
       </c>
       <c r="B29">
-        <v>1.4E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -3118,7 +3122,7 @@
         <v>726</v>
       </c>
       <c r="B30">
-        <v>1.4E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -3126,7 +3130,7 @@
         <v>725</v>
       </c>
       <c r="B31">
-        <v>1.5E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -3134,7 +3138,7 @@
         <v>724</v>
       </c>
       <c r="B32">
-        <v>1.5E-3</v>
+        <v>2.5999999999999999E-3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -3142,7 +3146,7 @@
         <v>723</v>
       </c>
       <c r="B33">
-        <v>1.5E-3</v>
+        <v>2.5999999999999999E-3</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -3150,7 +3154,7 @@
         <v>722</v>
       </c>
       <c r="B34">
-        <v>1.5E-3</v>
+        <v>2.5999999999999999E-3</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -3158,7 +3162,7 @@
         <v>721</v>
       </c>
       <c r="B35">
-        <v>1.5E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -3166,7 +3170,7 @@
         <v>720</v>
       </c>
       <c r="B36">
-        <v>1.4E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -3174,7 +3178,7 @@
         <v>719</v>
       </c>
       <c r="B37">
-        <v>1.5E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -3182,7 +3186,7 @@
         <v>718</v>
       </c>
       <c r="B38">
-        <v>1.5E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -3190,7 +3194,7 @@
         <v>717</v>
       </c>
       <c r="B39">
-        <v>1.4E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -3198,7 +3202,7 @@
         <v>716</v>
       </c>
       <c r="B40">
-        <v>1.4E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -3206,7 +3210,7 @@
         <v>715</v>
       </c>
       <c r="B41">
-        <v>1.4E-3</v>
+        <v>3.0999999999999999E-3</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -3214,7 +3218,7 @@
         <v>714</v>
       </c>
       <c r="B42">
-        <v>1.4E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -3222,7 +3226,7 @@
         <v>713</v>
       </c>
       <c r="B43">
-        <v>1.4E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -3230,7 +3234,7 @@
         <v>712</v>
       </c>
       <c r="B44">
-        <v>1.4E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -3238,7 +3242,7 @@
         <v>711</v>
       </c>
       <c r="B45">
-        <v>1.4E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -3246,7 +3250,7 @@
         <v>710</v>
       </c>
       <c r="B46">
-        <v>1.4E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -3254,7 +3258,7 @@
         <v>709</v>
       </c>
       <c r="B47">
-        <v>1.5E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -3262,7 +3266,7 @@
         <v>708</v>
       </c>
       <c r="B48">
-        <v>1.5E-3</v>
+        <v>3.8E-3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -3270,7 +3274,7 @@
         <v>707</v>
       </c>
       <c r="B49">
-        <v>1.5E-3</v>
+        <v>3.8999999999999998E-3</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -3278,7 +3282,7 @@
         <v>706</v>
       </c>
       <c r="B50">
-        <v>1.4E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -3286,7 +3290,7 @@
         <v>705</v>
       </c>
       <c r="B51">
-        <v>1.5E-3</v>
+        <v>4.1999999999999997E-3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -3294,7 +3298,7 @@
         <v>704</v>
       </c>
       <c r="B52">
-        <v>1.5E-3</v>
+        <v>4.1999999999999997E-3</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -3302,7 +3306,7 @@
         <v>703</v>
       </c>
       <c r="B53">
-        <v>1.5E-3</v>
+        <v>4.4000000000000003E-3</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -3310,7 +3314,7 @@
         <v>702</v>
       </c>
       <c r="B54">
-        <v>1.5E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -3318,7 +3322,7 @@
         <v>701</v>
       </c>
       <c r="B55">
-        <v>1.6000000000000001E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -3326,7 +3330,7 @@
         <v>700</v>
       </c>
       <c r="B56">
-        <v>1.5E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -3334,7 +3338,7 @@
         <v>699</v>
       </c>
       <c r="B57">
-        <v>1.6000000000000001E-3</v>
+        <v>5.3E-3</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -3342,7 +3346,7 @@
         <v>698</v>
       </c>
       <c r="B58">
-        <v>1.6000000000000001E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -3350,7 +3354,7 @@
         <v>697</v>
       </c>
       <c r="B59">
-        <v>1.6999999999999999E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -3358,7 +3362,7 @@
         <v>696</v>
       </c>
       <c r="B60">
-        <v>1.6999999999999999E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -3366,7 +3370,7 @@
         <v>695</v>
       </c>
       <c r="B61">
-        <v>1.6999999999999999E-3</v>
+        <v>6.8999999999999999E-3</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -3374,7 +3378,7 @@
         <v>694</v>
       </c>
       <c r="B62">
-        <v>1.8E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -3382,7 +3386,7 @@
         <v>693</v>
       </c>
       <c r="B63">
-        <v>1.9E-3</v>
+        <v>8.2000000000000007E-3</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -3390,7 +3394,7 @@
         <v>692</v>
       </c>
       <c r="B64">
-        <v>2E-3</v>
+        <v>9.1000000000000004E-3</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -3398,7 +3402,7 @@
         <v>691</v>
       </c>
       <c r="B65">
-        <v>2.0999999999999999E-3</v>
+        <v>1.01E-2</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -3406,7 +3410,7 @@
         <v>690</v>
       </c>
       <c r="B66">
-        <v>2.2000000000000001E-3</v>
+        <v>1.14E-2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -3414,7 +3418,7 @@
         <v>689</v>
       </c>
       <c r="B67">
-        <v>2.3999999999999998E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -3422,7 +3426,7 @@
         <v>688</v>
       </c>
       <c r="B68">
-        <v>2.7000000000000001E-3</v>
+        <v>1.49E-2</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -3430,7 +3434,7 @@
         <v>687</v>
       </c>
       <c r="B69">
-        <v>2.8999999999999998E-3</v>
+        <v>1.7299999999999999E-2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -3438,7 +3442,7 @@
         <v>686</v>
       </c>
       <c r="B70">
-        <v>3.3E-3</v>
+        <v>2.0400000000000001E-2</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -3446,7 +3450,7 @@
         <v>685</v>
       </c>
       <c r="B71">
-        <v>3.7000000000000002E-3</v>
+        <v>2.41E-2</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -3454,7 +3458,7 @@
         <v>684</v>
       </c>
       <c r="B72">
-        <v>4.1000000000000003E-3</v>
+        <v>2.86E-2</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -3462,7 +3466,7 @@
         <v>683</v>
       </c>
       <c r="B73">
-        <v>4.7999999999999996E-3</v>
+        <v>3.44E-2</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -3470,7 +3474,7 @@
         <v>682</v>
       </c>
       <c r="B74">
-        <v>5.4999999999999997E-3</v>
+        <v>4.1200000000000001E-2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -3478,7 +3482,7 @@
         <v>681</v>
       </c>
       <c r="B75">
-        <v>6.4000000000000003E-3</v>
+        <v>4.9299999999999997E-2</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -3486,7 +3490,7 @@
         <v>680</v>
       </c>
       <c r="B76">
-        <v>7.4999999999999997E-3</v>
+        <v>5.9299999999999999E-2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -3494,7 +3498,7 @@
         <v>679</v>
       </c>
       <c r="B77">
-        <v>8.8999999999999999E-3</v>
+        <v>7.1300000000000002E-2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -3502,7 +3506,7 @@
         <v>678</v>
       </c>
       <c r="B78">
-        <v>1.03E-2</v>
+        <v>8.5400000000000004E-2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -3510,7 +3514,7 @@
         <v>677</v>
       </c>
       <c r="B79">
-        <v>1.21E-2</v>
+        <v>0.1017</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -3518,7 +3522,7 @@
         <v>676</v>
       </c>
       <c r="B80">
-        <v>1.41E-2</v>
+        <v>0.12039999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -3526,7 +3530,7 @@
         <v>675</v>
       </c>
       <c r="B81">
-        <v>1.6400000000000001E-2</v>
+        <v>0.14130000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -3534,7 +3538,7 @@
         <v>674</v>
       </c>
       <c r="B82">
-        <v>1.89E-2</v>
+        <v>0.16450000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -3542,7 +3546,7 @@
         <v>673</v>
       </c>
       <c r="B83">
-        <v>2.1399999999999999E-2</v>
+        <v>0.1893</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -3550,7 +3554,7 @@
         <v>672</v>
       </c>
       <c r="B84">
-        <v>2.4199999999999999E-2</v>
+        <v>0.2157</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -3558,7 +3562,7 @@
         <v>671</v>
       </c>
       <c r="B85">
-        <v>2.7099999999999999E-2</v>
+        <v>0.24299999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -3566,7 +3570,7 @@
         <v>670</v>
       </c>
       <c r="B86">
-        <v>2.98E-2</v>
+        <v>0.26989999999999997</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -3574,7 +3578,7 @@
         <v>669</v>
       </c>
       <c r="B87">
-        <v>3.2500000000000001E-2</v>
+        <v>0.29570000000000002</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -3582,7 +3586,7 @@
         <v>668</v>
       </c>
       <c r="B88">
-        <v>3.5099999999999999E-2</v>
+        <v>0.31900000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -3590,7 +3594,7 @@
         <v>667</v>
       </c>
       <c r="B89">
-        <v>3.7199999999999997E-2</v>
+        <v>0.33939999999999998</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -3598,7 +3602,7 @@
         <v>666</v>
       </c>
       <c r="B90">
-        <v>3.8699999999999998E-2</v>
+        <v>0.35580000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -3606,7 +3610,7 @@
         <v>665</v>
       </c>
       <c r="B91">
-        <v>3.9899999999999998E-2</v>
+        <v>0.3679</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -3614,7 +3618,7 @@
         <v>664</v>
       </c>
       <c r="B92">
-        <v>4.0500000000000001E-2</v>
+        <v>0.37459999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -3622,7 +3626,7 @@
         <v>663</v>
       </c>
       <c r="B93">
-        <v>4.0599999999999997E-2</v>
+        <v>0.37569999999999998</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -3630,7 +3634,7 @@
         <v>662</v>
       </c>
       <c r="B94">
-        <v>4.0099999999999997E-2</v>
+        <v>0.37109999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -3638,7 +3642,7 @@
         <v>661</v>
       </c>
       <c r="B95">
-        <v>3.9E-2</v>
+        <v>0.36130000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -3646,7 +3650,7 @@
         <v>660</v>
       </c>
       <c r="B96">
-        <v>3.7400000000000003E-2</v>
+        <v>0.34649999999999997</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -3654,7 +3658,7 @@
         <v>659</v>
       </c>
       <c r="B97">
-        <v>3.5299999999999998E-2</v>
+        <v>0.32750000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -3662,7 +3666,7 @@
         <v>658</v>
       </c>
       <c r="B98">
-        <v>3.3099999999999997E-2</v>
+        <v>0.30570000000000003</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -3670,7 +3674,7 @@
         <v>657</v>
       </c>
       <c r="B99">
-        <v>3.0599999999999999E-2</v>
+        <v>0.28170000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -3678,7 +3682,7 @@
         <v>656</v>
       </c>
       <c r="B100">
-        <v>2.7900000000000001E-2</v>
+        <v>0.25679999999999997</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -3686,7 +3690,7 @@
         <v>655</v>
       </c>
       <c r="B101">
-        <v>2.53E-2</v>
+        <v>0.2324</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -3694,7 +3698,7 @@
         <v>654</v>
       </c>
       <c r="B102">
-        <v>2.29E-2</v>
+        <v>0.20880000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -3702,7 +3706,7 @@
         <v>653</v>
       </c>
       <c r="B103">
-        <v>2.06E-2</v>
+        <v>0.1865</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -3710,7 +3714,7 @@
         <v>652</v>
       </c>
       <c r="B104">
-        <v>1.8499999999999999E-2</v>
+        <v>0.16600000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -3718,7 +3722,7 @@
         <v>651</v>
       </c>
       <c r="B105">
-        <v>1.6500000000000001E-2</v>
+        <v>0.14729999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -3726,7 +3730,7 @@
         <v>650</v>
       </c>
       <c r="B106">
-        <v>1.4800000000000001E-2</v>
+        <v>0.1308</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -3734,7 +3738,7 @@
         <v>649</v>
       </c>
       <c r="B107">
-        <v>1.3299999999999999E-2</v>
+        <v>0.11650000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -3742,7 +3746,7 @@
         <v>648</v>
       </c>
       <c r="B108">
-        <v>1.21E-2</v>
+        <v>0.1041</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -3750,7 +3754,7 @@
         <v>647</v>
       </c>
       <c r="B109">
-        <v>1.0999999999999999E-2</v>
+        <v>9.35E-2</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -3758,7 +3762,7 @@
         <v>646</v>
       </c>
       <c r="B110">
-        <v>1.01E-2</v>
+        <v>8.4599999999999995E-2</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -3766,7 +3770,7 @@
         <v>645</v>
       </c>
       <c r="B111">
-        <v>9.4000000000000004E-3</v>
+        <v>7.7299999999999994E-2</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -3774,7 +3778,7 @@
         <v>644</v>
       </c>
       <c r="B112">
-        <v>8.6E-3</v>
+        <v>7.1199999999999999E-2</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -3782,7 +3786,7 @@
         <v>643</v>
       </c>
       <c r="B113">
-        <v>8.2000000000000007E-3</v>
+        <v>6.6100000000000006E-2</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -3790,7 +3794,7 @@
         <v>642</v>
       </c>
       <c r="B114">
-        <v>7.7000000000000002E-3</v>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -3798,7 +3802,7 @@
         <v>641</v>
       </c>
       <c r="B115">
-        <v>7.4999999999999997E-3</v>
+        <v>5.8900000000000001E-2</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -3806,7 +3810,7 @@
         <v>640</v>
       </c>
       <c r="B116">
-        <v>7.1999999999999998E-3</v>
+        <v>5.6399999999999999E-2</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -3814,7 +3818,7 @@
         <v>639</v>
       </c>
       <c r="B117">
-        <v>7.0000000000000001E-3</v>
+        <v>5.4600000000000003E-2</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -3822,7 +3826,7 @@
         <v>638</v>
       </c>
       <c r="B118">
-        <v>6.8999999999999999E-3</v>
+        <v>5.3499999999999999E-2</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -3830,7 +3834,7 @@
         <v>637</v>
       </c>
       <c r="B119">
-        <v>6.7999999999999996E-3</v>
+        <v>5.2900000000000003E-2</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -3838,7 +3842,7 @@
         <v>636</v>
       </c>
       <c r="B120">
-        <v>6.7999999999999996E-3</v>
+        <v>5.2699999999999997E-2</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -3846,7 +3850,7 @@
         <v>635</v>
       </c>
       <c r="B121">
-        <v>6.7999999999999996E-3</v>
+        <v>5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -3854,7 +3858,7 @@
         <v>634</v>
       </c>
       <c r="B122">
-        <v>6.8999999999999999E-3</v>
+        <v>5.3699999999999998E-2</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -3862,7 +3866,7 @@
         <v>633</v>
       </c>
       <c r="B123">
-        <v>7.0000000000000001E-3</v>
+        <v>5.4600000000000003E-2</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -3870,7 +3874,7 @@
         <v>632</v>
       </c>
       <c r="B124">
-        <v>7.1999999999999998E-3</v>
+        <v>5.5899999999999998E-2</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -3878,7 +3882,7 @@
         <v>631</v>
       </c>
       <c r="B125">
-        <v>7.4000000000000003E-3</v>
+        <v>5.74E-2</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -3886,7 +3890,7 @@
         <v>630</v>
       </c>
       <c r="B126">
-        <v>7.6E-3</v>
+        <v>5.9200000000000003E-2</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -3894,7 +3898,7 @@
         <v>629</v>
       </c>
       <c r="B127">
-        <v>7.7000000000000002E-3</v>
+        <v>6.1100000000000002E-2</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -3902,7 +3906,7 @@
         <v>628</v>
       </c>
       <c r="B128">
-        <v>7.9000000000000008E-3</v>
+        <v>6.3100000000000003E-2</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -3910,7 +3914,7 @@
         <v>627</v>
       </c>
       <c r="B129">
-        <v>8.0999999999999996E-3</v>
+        <v>6.5100000000000005E-2</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -3918,7 +3922,7 @@
         <v>626</v>
       </c>
       <c r="B130">
-        <v>8.3999999999999995E-3</v>
+        <v>6.7100000000000007E-2</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -3926,7 +3930,7 @@
         <v>625</v>
       </c>
       <c r="B131">
-        <v>8.5000000000000006E-3</v>
+        <v>6.8900000000000003E-2</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -3934,7 +3938,7 @@
         <v>624</v>
       </c>
       <c r="B132">
-        <v>8.6999999999999994E-3</v>
+        <v>7.0699999999999999E-2</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -3942,7 +3946,7 @@
         <v>623</v>
       </c>
       <c r="B133">
-        <v>8.8000000000000005E-3</v>
+        <v>7.2300000000000003E-2</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -3950,7 +3954,7 @@
         <v>622</v>
       </c>
       <c r="B134">
-        <v>9.1000000000000004E-3</v>
+        <v>7.3599999999999999E-2</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -3958,7 +3962,7 @@
         <v>621</v>
       </c>
       <c r="B135">
-        <v>9.1000000000000004E-3</v>
+        <v>7.46E-2</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -3966,7 +3970,7 @@
         <v>620</v>
       </c>
       <c r="B136">
-        <v>9.1999999999999998E-3</v>
+        <v>7.5399999999999995E-2</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -3974,7 +3978,7 @@
         <v>619</v>
       </c>
       <c r="B137">
-        <v>9.1999999999999998E-3</v>
+        <v>7.5899999999999995E-2</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -3982,7 +3986,7 @@
         <v>618</v>
       </c>
       <c r="B138">
-        <v>9.2999999999999992E-3</v>
+        <v>7.6200000000000004E-2</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -3990,7 +3994,7 @@
         <v>617</v>
       </c>
       <c r="B139">
-        <v>9.2999999999999992E-3</v>
+        <v>7.6300000000000007E-2</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -3998,7 +4002,7 @@
         <v>616</v>
       </c>
       <c r="B140">
-        <v>9.2999999999999992E-3</v>
+        <v>7.5999999999999998E-2</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -4006,7 +4010,7 @@
         <v>615</v>
       </c>
       <c r="B141">
-        <v>9.1999999999999998E-3</v>
+        <v>7.5499999999999998E-2</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -4014,7 +4018,7 @@
         <v>614</v>
       </c>
       <c r="B142">
-        <v>9.1000000000000004E-3</v>
+        <v>7.4899999999999994E-2</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -4022,7 +4026,7 @@
         <v>613</v>
       </c>
       <c r="B143">
-        <v>8.9999999999999993E-3</v>
+        <v>7.3999999999999996E-2</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -4030,7 +4034,7 @@
         <v>612</v>
       </c>
       <c r="B144">
-        <v>8.8999999999999999E-3</v>
+        <v>7.2900000000000006E-2</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -4038,7 +4042,7 @@
         <v>611</v>
       </c>
       <c r="B145">
-        <v>8.8000000000000005E-3</v>
+        <v>7.1599999999999997E-2</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -4046,7 +4050,7 @@
         <v>610</v>
       </c>
       <c r="B146">
-        <v>8.6E-3</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -4054,7 +4058,7 @@
         <v>609</v>
       </c>
       <c r="B147">
-        <v>8.3999999999999995E-3</v>
+        <v>6.8099999999999994E-2</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -4062,7 +4066,7 @@
         <v>608</v>
       </c>
       <c r="B148">
-        <v>8.2000000000000007E-3</v>
+        <v>6.6199999999999995E-2</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -4070,7 +4074,7 @@
         <v>607</v>
       </c>
       <c r="B149">
-        <v>7.9000000000000008E-3</v>
+        <v>6.4100000000000004E-2</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -4078,7 +4082,7 @@
         <v>606</v>
       </c>
       <c r="B150">
-        <v>7.7000000000000002E-3</v>
+        <v>6.1899999999999997E-2</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -4086,7 +4090,7 @@
         <v>605</v>
       </c>
       <c r="B151">
-        <v>7.4999999999999997E-3</v>
+        <v>5.9700000000000003E-2</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -4094,7 +4098,7 @@
         <v>604</v>
       </c>
       <c r="B152">
-        <v>7.1999999999999998E-3</v>
+        <v>5.7200000000000001E-2</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -4102,7 +4106,7 @@
         <v>603</v>
       </c>
       <c r="B153">
-        <v>6.8999999999999999E-3</v>
+        <v>5.4800000000000001E-2</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -4110,7 +4114,7 @@
         <v>602</v>
       </c>
       <c r="B154">
-        <v>6.7000000000000002E-3</v>
+        <v>5.2499999999999998E-2</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -4118,7 +4122,7 @@
         <v>601</v>
       </c>
       <c r="B155">
-        <v>6.4999999999999997E-3</v>
+        <v>5.0299999999999997E-2</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -4126,7 +4130,7 @@
         <v>600</v>
       </c>
       <c r="B156">
-        <v>6.1999999999999998E-3</v>
+        <v>4.8099999999999997E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4135,16 +4139,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68956FD6-8B6C-43D4-B6B1-D374F9400491}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9BFC28-82F5-4106-903B-2E8008C7788D}">
   <dimension ref="A2:B156"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4160,7 +4166,7 @@
         <v>750</v>
       </c>
       <c r="B6">
-        <v>3.2000000000000002E-3</v>
+        <v>6.7999999999999996E-3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4168,7 +4174,7 @@
         <v>749</v>
       </c>
       <c r="B7">
-        <v>3.0999999999999999E-3</v>
+        <v>6.7999999999999996E-3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4176,7 +4182,7 @@
         <v>748</v>
       </c>
       <c r="B8">
-        <v>3.2000000000000002E-3</v>
+        <v>6.8999999999999999E-3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4184,7 +4190,7 @@
         <v>747</v>
       </c>
       <c r="B9">
-        <v>3.2000000000000002E-3</v>
+        <v>6.7999999999999996E-3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -4192,7 +4198,7 @@
         <v>746</v>
       </c>
       <c r="B10">
-        <v>3.0999999999999999E-3</v>
+        <v>6.6E-3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -4200,7 +4206,7 @@
         <v>745</v>
       </c>
       <c r="B11">
-        <v>3.0999999999999999E-3</v>
+        <v>6.6E-3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -4208,7 +4214,7 @@
         <v>744</v>
       </c>
       <c r="B12">
-        <v>3.0000000000000001E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -4216,7 +4222,7 @@
         <v>743</v>
       </c>
       <c r="B13">
-        <v>3.0000000000000001E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -4224,7 +4230,7 @@
         <v>742</v>
       </c>
       <c r="B14">
-        <v>2.8999999999999998E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -4232,7 +4238,7 @@
         <v>741</v>
       </c>
       <c r="B15">
-        <v>2.8999999999999998E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -4240,7 +4246,7 @@
         <v>740</v>
       </c>
       <c r="B16">
-        <v>2.8999999999999998E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -4248,7 +4254,7 @@
         <v>739</v>
       </c>
       <c r="B17">
-        <v>3.0999999999999999E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -4256,7 +4262,7 @@
         <v>738</v>
       </c>
       <c r="B18">
-        <v>3.0000000000000001E-3</v>
+        <v>6.6E-3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -4264,7 +4270,7 @@
         <v>737</v>
       </c>
       <c r="B19">
-        <v>2.8999999999999998E-3</v>
+        <v>6.6E-3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -4272,7 +4278,7 @@
         <v>736</v>
       </c>
       <c r="B20">
-        <v>2.8999999999999998E-3</v>
+        <v>6.6E-3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -4280,7 +4286,7 @@
         <v>735</v>
       </c>
       <c r="B21">
-        <v>3.0000000000000001E-3</v>
+        <v>6.6E-3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -4288,7 +4294,7 @@
         <v>734</v>
       </c>
       <c r="B22">
-        <v>3.0000000000000001E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -4296,7 +4302,7 @@
         <v>733</v>
       </c>
       <c r="B23">
-        <v>3.0999999999999999E-3</v>
+        <v>6.6E-3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -4304,7 +4310,7 @@
         <v>732</v>
       </c>
       <c r="B24">
-        <v>3.0999999999999999E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -4312,7 +4318,7 @@
         <v>731</v>
       </c>
       <c r="B25">
-        <v>3.0999999999999999E-3</v>
+        <v>6.6E-3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -4320,7 +4326,7 @@
         <v>730</v>
       </c>
       <c r="B26">
-        <v>3.2000000000000002E-3</v>
+        <v>6.6E-3</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -4328,7 +4334,7 @@
         <v>729</v>
       </c>
       <c r="B27">
-        <v>3.2000000000000002E-3</v>
+        <v>6.6E-3</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -4336,7 +4342,7 @@
         <v>728</v>
       </c>
       <c r="B28">
-        <v>3.2000000000000002E-3</v>
+        <v>6.6E-3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -4344,7 +4350,7 @@
         <v>727</v>
       </c>
       <c r="B29">
-        <v>3.2000000000000002E-3</v>
+        <v>6.6E-3</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -4352,7 +4358,7 @@
         <v>726</v>
       </c>
       <c r="B30">
-        <v>3.2000000000000002E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -4360,7 +4366,7 @@
         <v>725</v>
       </c>
       <c r="B31">
-        <v>3.3E-3</v>
+        <v>6.7999999999999996E-3</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -4368,7 +4374,7 @@
         <v>724</v>
       </c>
       <c r="B32">
-        <v>3.3999999999999998E-3</v>
+        <v>6.8999999999999999E-3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -4376,7 +4382,7 @@
         <v>723</v>
       </c>
       <c r="B33">
-        <v>3.3999999999999998E-3</v>
+        <v>6.8999999999999999E-3</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -4384,7 +4390,7 @@
         <v>722</v>
       </c>
       <c r="B34">
-        <v>3.3999999999999998E-3</v>
+        <v>6.8999999999999999E-3</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -4392,7 +4398,7 @@
         <v>721</v>
       </c>
       <c r="B35">
-        <v>3.5000000000000001E-3</v>
+        <v>6.8999999999999999E-3</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -4400,7 +4406,7 @@
         <v>720</v>
       </c>
       <c r="B36">
-        <v>3.3999999999999998E-3</v>
+        <v>6.7999999999999996E-3</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -4408,7 +4414,7 @@
         <v>719</v>
       </c>
       <c r="B37">
-        <v>3.5000000000000001E-3</v>
+        <v>6.7999999999999996E-3</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -4416,7 +4422,7 @@
         <v>718</v>
       </c>
       <c r="B38">
-        <v>3.5000000000000001E-3</v>
+        <v>6.8999999999999999E-3</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -4424,7 +4430,7 @@
         <v>717</v>
       </c>
       <c r="B39">
-        <v>3.5000000000000001E-3</v>
+        <v>6.8999999999999999E-3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -4432,7 +4438,7 @@
         <v>716</v>
       </c>
       <c r="B40">
-        <v>3.5000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -4440,7 +4446,7 @@
         <v>715</v>
       </c>
       <c r="B41">
-        <v>3.5000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -4448,7 +4454,7 @@
         <v>714</v>
       </c>
       <c r="B42">
-        <v>3.5000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -4456,7 +4462,7 @@
         <v>713</v>
       </c>
       <c r="B43">
-        <v>3.5999999999999999E-3</v>
+        <v>7.1000000000000004E-3</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -4464,7 +4470,7 @@
         <v>712</v>
       </c>
       <c r="B44">
-        <v>3.5999999999999999E-3</v>
+        <v>7.1000000000000004E-3</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -4472,7 +4478,7 @@
         <v>711</v>
       </c>
       <c r="B45">
-        <v>3.5999999999999999E-3</v>
+        <v>7.1999999999999998E-3</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -4480,7 +4486,7 @@
         <v>710</v>
       </c>
       <c r="B46">
-        <v>3.5999999999999999E-3</v>
+        <v>7.4000000000000003E-3</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -4488,7 +4494,7 @@
         <v>709</v>
       </c>
       <c r="B47">
-        <v>3.7000000000000002E-3</v>
+        <v>7.4000000000000003E-3</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -4496,7 +4502,7 @@
         <v>708</v>
       </c>
       <c r="B48">
-        <v>3.7000000000000002E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -4504,7 +4510,7 @@
         <v>707</v>
       </c>
       <c r="B49">
-        <v>3.8E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -4512,7 +4518,7 @@
         <v>706</v>
       </c>
       <c r="B50">
-        <v>3.8E-3</v>
+        <v>7.6E-3</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -4520,7 +4526,7 @@
         <v>705</v>
       </c>
       <c r="B51">
-        <v>3.8E-3</v>
+        <v>7.7000000000000002E-3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -4528,7 +4534,7 @@
         <v>704</v>
       </c>
       <c r="B52">
-        <v>3.8E-3</v>
+        <v>7.7000000000000002E-3</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -4536,7 +4542,7 @@
         <v>703</v>
       </c>
       <c r="B53">
-        <v>3.8999999999999998E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -4544,7 +4550,7 @@
         <v>702</v>
       </c>
       <c r="B54">
-        <v>3.8E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -4552,7 +4558,7 @@
         <v>701</v>
       </c>
       <c r="B55">
-        <v>4.0000000000000001E-3</v>
+        <v>8.0999999999999996E-3</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -4560,7 +4566,7 @@
         <v>700</v>
       </c>
       <c r="B56">
-        <v>4.0000000000000001E-3</v>
+        <v>8.3000000000000001E-3</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -4568,7 +4574,7 @@
         <v>699</v>
       </c>
       <c r="B57">
-        <v>4.1000000000000003E-3</v>
+        <v>8.5000000000000006E-3</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -4576,7 +4582,7 @@
         <v>698</v>
       </c>
       <c r="B58">
-        <v>4.1999999999999997E-3</v>
+        <v>8.6999999999999994E-3</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -4584,7 +4590,7 @@
         <v>697</v>
       </c>
       <c r="B59">
-        <v>4.1999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -4592,7 +4598,7 @@
         <v>696</v>
       </c>
       <c r="B60">
-        <v>4.3E-3</v>
+        <v>9.2999999999999992E-3</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -4600,7 +4606,7 @@
         <v>695</v>
       </c>
       <c r="B61">
-        <v>4.4000000000000003E-3</v>
+        <v>9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -4608,7 +4614,7 @@
         <v>694</v>
       </c>
       <c r="B62">
-        <v>4.5999999999999999E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -4616,7 +4622,7 @@
         <v>693</v>
       </c>
       <c r="B63">
-        <v>4.7000000000000002E-3</v>
+        <v>1.0500000000000001E-2</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -4624,7 +4630,7 @@
         <v>692</v>
       </c>
       <c r="B64">
-        <v>4.8999999999999998E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -4632,7 +4638,7 @@
         <v>691</v>
       </c>
       <c r="B65">
-        <v>5.0000000000000001E-3</v>
+        <v>1.18E-2</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -4640,7 +4646,7 @@
         <v>690</v>
       </c>
       <c r="B66">
-        <v>5.3E-3</v>
+        <v>1.26E-2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -4648,7 +4654,7 @@
         <v>689</v>
       </c>
       <c r="B67">
-        <v>5.5999999999999999E-3</v>
+        <v>1.3599999999999999E-2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -4656,7 +4662,7 @@
         <v>688</v>
       </c>
       <c r="B68">
-        <v>5.8999999999999999E-3</v>
+        <v>1.49E-2</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -4664,7 +4670,7 @@
         <v>687</v>
       </c>
       <c r="B69">
-        <v>6.4000000000000003E-3</v>
+        <v>1.6400000000000001E-2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -4672,7 +4678,7 @@
         <v>686</v>
       </c>
       <c r="B70">
-        <v>7.0000000000000001E-3</v>
+        <v>1.8499999999999999E-2</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -4680,7 +4686,7 @@
         <v>685</v>
       </c>
       <c r="B71">
-        <v>7.7000000000000002E-3</v>
+        <v>2.0899999999999998E-2</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -4688,7 +4694,7 @@
         <v>684</v>
       </c>
       <c r="B72">
-        <v>8.5000000000000006E-3</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -4696,7 +4702,7 @@
         <v>683</v>
       </c>
       <c r="B73">
-        <v>9.5999999999999992E-3</v>
+        <v>2.7900000000000001E-2</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -4704,7 +4710,7 @@
         <v>682</v>
       </c>
       <c r="B74">
-        <v>1.09E-2</v>
+        <v>3.2199999999999999E-2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -4712,7 +4718,7 @@
         <v>681</v>
       </c>
       <c r="B75">
-        <v>1.23E-2</v>
+        <v>3.7600000000000001E-2</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -4720,7 +4726,7 @@
         <v>680</v>
       </c>
       <c r="B76">
-        <v>1.4200000000000001E-2</v>
+        <v>4.41E-2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -4728,7 +4734,7 @@
         <v>679</v>
       </c>
       <c r="B77">
-        <v>1.6500000000000001E-2</v>
+        <v>5.1900000000000002E-2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -4736,7 +4742,7 @@
         <v>678</v>
       </c>
       <c r="B78">
-        <v>1.89E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -4744,7 +4750,7 @@
         <v>677</v>
       </c>
       <c r="B79">
-        <v>2.1899999999999999E-2</v>
+        <v>7.1599999999999997E-2</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -4752,7 +4758,7 @@
         <v>676</v>
       </c>
       <c r="B80">
-        <v>2.52E-2</v>
+        <v>8.3500000000000005E-2</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -4760,7 +4766,7 @@
         <v>675</v>
       </c>
       <c r="B81">
-        <v>2.9100000000000001E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -4768,7 +4774,7 @@
         <v>674</v>
       </c>
       <c r="B82">
-        <v>3.3300000000000003E-2</v>
+        <v>0.1119</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -4776,7 +4782,7 @@
         <v>673</v>
       </c>
       <c r="B83">
-        <v>3.7699999999999997E-2</v>
+        <v>0.1278</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -4784,7 +4790,7 @@
         <v>672</v>
       </c>
       <c r="B84">
-        <v>4.24E-2</v>
+        <v>0.14460000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -4792,7 +4798,7 @@
         <v>671</v>
       </c>
       <c r="B85">
-        <v>4.7399999999999998E-2</v>
+        <v>0.1618</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -4800,7 +4806,7 @@
         <v>670</v>
       </c>
       <c r="B86">
-        <v>5.21E-2</v>
+        <v>0.17860000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -4808,7 +4814,7 @@
         <v>669</v>
       </c>
       <c r="B87">
-        <v>5.67E-2</v>
+        <v>0.19489999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -4816,7 +4822,7 @@
         <v>668</v>
       </c>
       <c r="B88">
-        <v>6.0999999999999999E-2</v>
+        <v>0.20949999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -4824,7 +4830,7 @@
         <v>667</v>
       </c>
       <c r="B89">
-        <v>6.4600000000000005E-2</v>
+        <v>0.2223</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -4832,7 +4838,7 @@
         <v>666</v>
       </c>
       <c r="B90">
-        <v>6.7400000000000002E-2</v>
+        <v>0.23250000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -4840,7 +4846,7 @@
         <v>665</v>
       </c>
       <c r="B91">
-        <v>6.9599999999999995E-2</v>
+        <v>0.23980000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -4848,7 +4854,7 @@
         <v>664</v>
       </c>
       <c r="B92">
-        <v>7.0699999999999999E-2</v>
+        <v>0.24379999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -4856,7 +4862,7 @@
         <v>663</v>
       </c>
       <c r="B93">
-        <v>7.0800000000000002E-2</v>
+        <v>0.2442</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -4864,7 +4870,7 @@
         <v>662</v>
       </c>
       <c r="B94">
-        <v>7.0000000000000007E-2</v>
+        <v>0.24110000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -4872,7 +4878,7 @@
         <v>661</v>
       </c>
       <c r="B95">
-        <v>6.8000000000000005E-2</v>
+        <v>0.23469999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -4880,7 +4886,7 @@
         <v>660</v>
       </c>
       <c r="B96">
-        <v>6.54E-2</v>
+        <v>0.22509999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -4888,7 +4894,7 @@
         <v>659</v>
       </c>
       <c r="B97">
-        <v>6.2E-2</v>
+        <v>0.21310000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -4896,7 +4902,7 @@
         <v>658</v>
       </c>
       <c r="B98">
-        <v>5.8200000000000002E-2</v>
+        <v>0.19919999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -4904,7 +4910,7 @@
         <v>657</v>
       </c>
       <c r="B99">
-        <v>5.3999999999999999E-2</v>
+        <v>0.1842</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -4912,7 +4918,7 @@
         <v>656</v>
       </c>
       <c r="B100">
-        <v>4.9399999999999999E-2</v>
+        <v>0.16839999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -4920,7 +4926,7 @@
         <v>655</v>
       </c>
       <c r="B101">
-        <v>4.5100000000000001E-2</v>
+        <v>0.15290000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -4928,7 +4934,7 @@
         <v>654</v>
       </c>
       <c r="B102">
-        <v>4.0899999999999999E-2</v>
+        <v>0.13800000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -4936,7 +4942,7 @@
         <v>653</v>
       </c>
       <c r="B103">
-        <v>3.6900000000000002E-2</v>
+        <v>0.1239</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -4944,7 +4950,7 @@
         <v>652</v>
       </c>
       <c r="B104">
-        <v>3.3300000000000003E-2</v>
+        <v>0.1111</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -4952,7 +4958,7 @@
         <v>651</v>
       </c>
       <c r="B105">
-        <v>2.9899999999999999E-2</v>
+        <v>9.9400000000000002E-2</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -4960,7 +4966,7 @@
         <v>650</v>
       </c>
       <c r="B106">
-        <v>2.7E-2</v>
+        <v>8.9099999999999999E-2</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -4968,7 +4974,7 @@
         <v>649</v>
       </c>
       <c r="B107">
-        <v>2.4500000000000001E-2</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -4976,7 +4982,7 @@
         <v>648</v>
       </c>
       <c r="B108">
-        <v>2.23E-2</v>
+        <v>7.22E-2</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -4984,7 +4990,7 @@
         <v>647</v>
       </c>
       <c r="B109">
-        <v>2.0500000000000001E-2</v>
+        <v>6.5600000000000006E-2</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -4992,7 +4998,7 @@
         <v>646</v>
       </c>
       <c r="B110">
-        <v>1.89E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -5000,7 +5006,7 @@
         <v>645</v>
       </c>
       <c r="B111">
-        <v>1.7600000000000001E-2</v>
+        <v>5.5300000000000002E-2</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -5008,7 +5014,7 @@
         <v>644</v>
       </c>
       <c r="B112">
-        <v>1.6500000000000001E-2</v>
+        <v>5.1400000000000001E-2</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -5016,7 +5022,7 @@
         <v>643</v>
       </c>
       <c r="B113">
-        <v>1.5599999999999999E-2</v>
+        <v>4.8300000000000003E-2</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -5024,7 +5030,7 @@
         <v>642</v>
       </c>
       <c r="B114">
-        <v>1.4999999999999999E-2</v>
+        <v>4.5600000000000002E-2</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -5032,7 +5038,7 @@
         <v>641</v>
       </c>
       <c r="B115">
-        <v>1.44E-2</v>
+        <v>4.3700000000000003E-2</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -5040,7 +5046,7 @@
         <v>640</v>
       </c>
       <c r="B116">
-        <v>1.4E-2</v>
+        <v>4.2099999999999999E-2</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -5048,7 +5054,7 @@
         <v>639</v>
       </c>
       <c r="B117">
-        <v>1.37E-2</v>
+        <v>4.0899999999999999E-2</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -5056,7 +5062,7 @@
         <v>638</v>
       </c>
       <c r="B118">
-        <v>1.35E-2</v>
+        <v>4.02E-2</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -5064,7 +5070,7 @@
         <v>637</v>
       </c>
       <c r="B119">
-        <v>1.35E-2</v>
+        <v>3.9800000000000002E-2</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -5072,7 +5078,7 @@
         <v>636</v>
       </c>
       <c r="B120">
-        <v>1.34E-2</v>
+        <v>3.9800000000000002E-2</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -5080,7 +5086,7 @@
         <v>635</v>
       </c>
       <c r="B121">
-        <v>1.35E-2</v>
+        <v>3.9899999999999998E-2</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -5088,7 +5094,7 @@
         <v>634</v>
       </c>
       <c r="B122">
-        <v>1.37E-2</v>
+        <v>4.0399999999999998E-2</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -5096,7 +5102,7 @@
         <v>633</v>
       </c>
       <c r="B123">
-        <v>1.38E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -5104,7 +5110,7 @@
         <v>632</v>
       </c>
       <c r="B124">
-        <v>1.4E-2</v>
+        <v>4.1799999999999997E-2</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -5112,7 +5118,7 @@
         <v>631</v>
       </c>
       <c r="B125">
-        <v>1.43E-2</v>
+        <v>4.2799999999999998E-2</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -5120,7 +5126,7 @@
         <v>630</v>
       </c>
       <c r="B126">
-        <v>1.47E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -5128,7 +5134,7 @@
         <v>629</v>
       </c>
       <c r="B127">
-        <v>1.4999999999999999E-2</v>
+        <v>4.5199999999999997E-2</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -5136,7 +5142,7 @@
         <v>628</v>
       </c>
       <c r="B128">
-        <v>1.54E-2</v>
+        <v>4.65E-2</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -5144,7 +5150,7 @@
         <v>627</v>
       </c>
       <c r="B129">
-        <v>1.5699999999999999E-2</v>
+        <v>4.7699999999999999E-2</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -5152,7 +5158,7 @@
         <v>626</v>
       </c>
       <c r="B130">
-        <v>1.61E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -5160,7 +5166,7 @@
         <v>625</v>
       </c>
       <c r="B131">
-        <v>1.6400000000000001E-2</v>
+        <v>5.0099999999999999E-2</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -5168,7 +5174,7 @@
         <v>624</v>
       </c>
       <c r="B132">
-        <v>1.67E-2</v>
+        <v>5.1200000000000002E-2</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -5176,7 +5182,7 @@
         <v>623</v>
       </c>
       <c r="B133">
-        <v>1.7100000000000001E-2</v>
+        <v>5.2400000000000002E-2</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -5184,7 +5190,7 @@
         <v>622</v>
       </c>
       <c r="B134">
-        <v>1.7299999999999999E-2</v>
+        <v>5.3100000000000001E-2</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -5192,7 +5198,7 @@
         <v>621</v>
       </c>
       <c r="B135">
-        <v>1.7500000000000002E-2</v>
+        <v>5.3699999999999998E-2</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -5200,7 +5206,7 @@
         <v>620</v>
       </c>
       <c r="B136">
-        <v>1.7600000000000001E-2</v>
+        <v>5.4300000000000001E-2</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -5208,7 +5214,7 @@
         <v>619</v>
       </c>
       <c r="B137">
-        <v>1.77E-2</v>
+        <v>5.4600000000000003E-2</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -5216,7 +5222,7 @@
         <v>618</v>
       </c>
       <c r="B138">
-        <v>1.78E-2</v>
+        <v>5.4800000000000001E-2</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -5224,7 +5230,7 @@
         <v>617</v>
       </c>
       <c r="B139">
-        <v>1.7899999999999999E-2</v>
+        <v>5.4899999999999997E-2</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -5232,7 +5238,7 @@
         <v>616</v>
       </c>
       <c r="B140">
-        <v>1.78E-2</v>
+        <v>5.4699999999999999E-2</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -5240,7 +5246,7 @@
         <v>615</v>
       </c>
       <c r="B141">
-        <v>1.77E-2</v>
+        <v>5.45E-2</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -5248,7 +5254,7 @@
         <v>614</v>
       </c>
       <c r="B142">
-        <v>1.7600000000000001E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -5256,7 +5262,7 @@
         <v>613</v>
       </c>
       <c r="B143">
-        <v>1.7399999999999999E-2</v>
+        <v>5.3400000000000003E-2</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -5264,7 +5270,7 @@
         <v>612</v>
       </c>
       <c r="B144">
-        <v>1.72E-2</v>
+        <v>5.2699999999999997E-2</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -5272,7 +5278,7 @@
         <v>611</v>
       </c>
       <c r="B145">
-        <v>1.7000000000000001E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -5280,7 +5286,7 @@
         <v>610</v>
       </c>
       <c r="B146">
-        <v>1.67E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -5288,7 +5294,7 @@
         <v>609</v>
       </c>
       <c r="B147">
-        <v>1.6500000000000001E-2</v>
+        <v>4.9799999999999997E-2</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -5296,7 +5302,7 @@
         <v>608</v>
       </c>
       <c r="B148">
-        <v>1.61E-2</v>
+        <v>4.8500000000000001E-2</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -5304,7 +5310,7 @@
         <v>607</v>
       </c>
       <c r="B149">
-        <v>1.5699999999999999E-2</v>
+        <v>4.7199999999999999E-2</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -5312,7 +5318,7 @@
         <v>606</v>
       </c>
       <c r="B150">
-        <v>1.5299999999999999E-2</v>
+        <v>4.58E-2</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -5320,7 +5326,7 @@
         <v>605</v>
       </c>
       <c r="B151">
-        <v>1.4999999999999999E-2</v>
+        <v>4.4400000000000002E-2</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -5328,7 +5334,7 @@
         <v>604</v>
       </c>
       <c r="B152">
-        <v>1.4500000000000001E-2</v>
+        <v>4.2900000000000001E-2</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -5336,7 +5342,7 @@
         <v>603</v>
       </c>
       <c r="B153">
-        <v>1.41E-2</v>
+        <v>4.1399999999999999E-2</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -5344,7 +5350,7 @@
         <v>602</v>
       </c>
       <c r="B154">
-        <v>1.37E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -5352,7 +5358,7 @@
         <v>601</v>
       </c>
       <c r="B155">
-        <v>1.3299999999999999E-2</v>
+        <v>3.8600000000000002E-2</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -5360,7 +5366,7 @@
         <v>600</v>
       </c>
       <c r="B156">
-        <v>1.29E-2</v>
+        <v>3.7199999999999997E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5372,13 +5378,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D8C70A-B6E8-4566-BE28-0BDB2A5D91D0}">
   <dimension ref="A2:B156"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6603,16 +6611,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9BFC28-82F5-4106-903B-2E8008C7788D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68956FD6-8B6C-43D4-B6B1-D374F9400491}">
   <dimension ref="A2:B156"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6628,7 +6638,7 @@
         <v>750</v>
       </c>
       <c r="B6">
-        <v>6.7999999999999996E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6636,7 +6646,7 @@
         <v>749</v>
       </c>
       <c r="B7">
-        <v>6.7999999999999996E-3</v>
+        <v>3.0999999999999999E-3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6644,7 +6654,7 @@
         <v>748</v>
       </c>
       <c r="B8">
-        <v>6.8999999999999999E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6652,7 +6662,7 @@
         <v>747</v>
       </c>
       <c r="B9">
-        <v>6.7999999999999996E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -6660,7 +6670,7 @@
         <v>746</v>
       </c>
       <c r="B10">
-        <v>6.6E-3</v>
+        <v>3.0999999999999999E-3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6668,7 +6678,7 @@
         <v>745</v>
       </c>
       <c r="B11">
-        <v>6.6E-3</v>
+        <v>3.0999999999999999E-3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -6676,7 +6686,7 @@
         <v>744</v>
       </c>
       <c r="B12">
-        <v>6.4999999999999997E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -6684,7 +6694,7 @@
         <v>743</v>
       </c>
       <c r="B13">
-        <v>6.4000000000000003E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -6692,7 +6702,7 @@
         <v>742</v>
       </c>
       <c r="B14">
-        <v>6.4000000000000003E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -6700,7 +6710,7 @@
         <v>741</v>
       </c>
       <c r="B15">
-        <v>6.4000000000000003E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -6708,7 +6718,7 @@
         <v>740</v>
       </c>
       <c r="B16">
-        <v>6.4000000000000003E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -6716,7 +6726,7 @@
         <v>739</v>
       </c>
       <c r="B17">
-        <v>6.4999999999999997E-3</v>
+        <v>3.0999999999999999E-3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -6724,7 +6734,7 @@
         <v>738</v>
       </c>
       <c r="B18">
-        <v>6.6E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -6732,7 +6742,7 @@
         <v>737</v>
       </c>
       <c r="B19">
-        <v>6.6E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -6740,7 +6750,7 @@
         <v>736</v>
       </c>
       <c r="B20">
-        <v>6.6E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -6748,7 +6758,7 @@
         <v>735</v>
       </c>
       <c r="B21">
-        <v>6.6E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -6756,7 +6766,7 @@
         <v>734</v>
       </c>
       <c r="B22">
-        <v>6.4999999999999997E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -6764,7 +6774,7 @@
         <v>733</v>
       </c>
       <c r="B23">
-        <v>6.6E-3</v>
+        <v>3.0999999999999999E-3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -6772,7 +6782,7 @@
         <v>732</v>
       </c>
       <c r="B24">
-        <v>6.4999999999999997E-3</v>
+        <v>3.0999999999999999E-3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -6780,7 +6790,7 @@
         <v>731</v>
       </c>
       <c r="B25">
-        <v>6.6E-3</v>
+        <v>3.0999999999999999E-3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -6788,7 +6798,7 @@
         <v>730</v>
       </c>
       <c r="B26">
-        <v>6.6E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -6796,7 +6806,7 @@
         <v>729</v>
       </c>
       <c r="B27">
-        <v>6.6E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -6804,7 +6814,7 @@
         <v>728</v>
       </c>
       <c r="B28">
-        <v>6.6E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -6812,7 +6822,7 @@
         <v>727</v>
       </c>
       <c r="B29">
-        <v>6.6E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -6820,7 +6830,7 @@
         <v>726</v>
       </c>
       <c r="B30">
-        <v>6.7000000000000002E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -6828,7 +6838,7 @@
         <v>725</v>
       </c>
       <c r="B31">
-        <v>6.7999999999999996E-3</v>
+        <v>3.3E-3</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -6836,7 +6846,7 @@
         <v>724</v>
       </c>
       <c r="B32">
-        <v>6.8999999999999999E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -6844,7 +6854,7 @@
         <v>723</v>
       </c>
       <c r="B33">
-        <v>6.8999999999999999E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -6852,7 +6862,7 @@
         <v>722</v>
       </c>
       <c r="B34">
-        <v>6.8999999999999999E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -6860,7 +6870,7 @@
         <v>721</v>
       </c>
       <c r="B35">
-        <v>6.8999999999999999E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -6868,7 +6878,7 @@
         <v>720</v>
       </c>
       <c r="B36">
-        <v>6.7999999999999996E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -6876,7 +6886,7 @@
         <v>719</v>
       </c>
       <c r="B37">
-        <v>6.7999999999999996E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -6884,7 +6894,7 @@
         <v>718</v>
       </c>
       <c r="B38">
-        <v>6.8999999999999999E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -6892,7 +6902,7 @@
         <v>717</v>
       </c>
       <c r="B39">
-        <v>6.8999999999999999E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -6900,7 +6910,7 @@
         <v>716</v>
       </c>
       <c r="B40">
-        <v>7.0000000000000001E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -6908,7 +6918,7 @@
         <v>715</v>
       </c>
       <c r="B41">
-        <v>7.0000000000000001E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -6916,7 +6926,7 @@
         <v>714</v>
       </c>
       <c r="B42">
-        <v>7.0000000000000001E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -6924,7 +6934,7 @@
         <v>713</v>
       </c>
       <c r="B43">
-        <v>7.1000000000000004E-3</v>
+        <v>3.5999999999999999E-3</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -6932,7 +6942,7 @@
         <v>712</v>
       </c>
       <c r="B44">
-        <v>7.1000000000000004E-3</v>
+        <v>3.5999999999999999E-3</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -6940,7 +6950,7 @@
         <v>711</v>
       </c>
       <c r="B45">
-        <v>7.1999999999999998E-3</v>
+        <v>3.5999999999999999E-3</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -6948,7 +6958,7 @@
         <v>710</v>
       </c>
       <c r="B46">
-        <v>7.4000000000000003E-3</v>
+        <v>3.5999999999999999E-3</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -6956,7 +6966,7 @@
         <v>709</v>
       </c>
       <c r="B47">
-        <v>7.4000000000000003E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -6964,7 +6974,7 @@
         <v>708</v>
       </c>
       <c r="B48">
-        <v>7.4999999999999997E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -6972,7 +6982,7 @@
         <v>707</v>
       </c>
       <c r="B49">
-        <v>7.4999999999999997E-3</v>
+        <v>3.8E-3</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -6980,7 +6990,7 @@
         <v>706</v>
       </c>
       <c r="B50">
-        <v>7.6E-3</v>
+        <v>3.8E-3</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -6988,7 +6998,7 @@
         <v>705</v>
       </c>
       <c r="B51">
-        <v>7.7000000000000002E-3</v>
+        <v>3.8E-3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -6996,7 +7006,7 @@
         <v>704</v>
       </c>
       <c r="B52">
-        <v>7.7000000000000002E-3</v>
+        <v>3.8E-3</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -7004,7 +7014,7 @@
         <v>703</v>
       </c>
       <c r="B53">
-        <v>7.9000000000000008E-3</v>
+        <v>3.8999999999999998E-3</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -7012,7 +7022,7 @@
         <v>702</v>
       </c>
       <c r="B54">
-        <v>8.0000000000000002E-3</v>
+        <v>3.8E-3</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -7020,7 +7030,7 @@
         <v>701</v>
       </c>
       <c r="B55">
-        <v>8.0999999999999996E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -7028,7 +7038,7 @@
         <v>700</v>
       </c>
       <c r="B56">
-        <v>8.3000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -7036,7 +7046,7 @@
         <v>699</v>
       </c>
       <c r="B57">
-        <v>8.5000000000000006E-3</v>
+        <v>4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -7044,7 +7054,7 @@
         <v>698</v>
       </c>
       <c r="B58">
-        <v>8.6999999999999994E-3</v>
+        <v>4.1999999999999997E-3</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -7052,7 +7062,7 @@
         <v>697</v>
       </c>
       <c r="B59">
-        <v>8.9999999999999993E-3</v>
+        <v>4.1999999999999997E-3</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -7060,7 +7070,7 @@
         <v>696</v>
       </c>
       <c r="B60">
-        <v>9.2999999999999992E-3</v>
+        <v>4.3E-3</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -7068,7 +7078,7 @@
         <v>695</v>
       </c>
       <c r="B61">
-        <v>9.5999999999999992E-3</v>
+        <v>4.4000000000000003E-3</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -7076,7 +7086,7 @@
         <v>694</v>
       </c>
       <c r="B62">
-        <v>0.01</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -7084,7 +7094,7 @@
         <v>693</v>
       </c>
       <c r="B63">
-        <v>1.0500000000000001E-2</v>
+        <v>4.7000000000000002E-3</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -7092,7 +7102,7 @@
         <v>692</v>
       </c>
       <c r="B64">
-        <v>1.0999999999999999E-2</v>
+        <v>4.8999999999999998E-3</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -7100,7 +7110,7 @@
         <v>691</v>
       </c>
       <c r="B65">
-        <v>1.18E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -7108,7 +7118,7 @@
         <v>690</v>
       </c>
       <c r="B66">
-        <v>1.26E-2</v>
+        <v>5.3E-3</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -7116,7 +7126,7 @@
         <v>689</v>
       </c>
       <c r="B67">
-        <v>1.3599999999999999E-2</v>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -7124,7 +7134,7 @@
         <v>688</v>
       </c>
       <c r="B68">
-        <v>1.49E-2</v>
+        <v>5.8999999999999999E-3</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -7132,7 +7142,7 @@
         <v>687</v>
       </c>
       <c r="B69">
-        <v>1.6400000000000001E-2</v>
+        <v>6.4000000000000003E-3</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -7140,7 +7150,7 @@
         <v>686</v>
       </c>
       <c r="B70">
-        <v>1.8499999999999999E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -7148,7 +7158,7 @@
         <v>685</v>
       </c>
       <c r="B71">
-        <v>2.0899999999999998E-2</v>
+        <v>7.7000000000000002E-3</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -7156,7 +7166,7 @@
         <v>684</v>
       </c>
       <c r="B72">
-        <v>2.4E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -7164,7 +7174,7 @@
         <v>683</v>
       </c>
       <c r="B73">
-        <v>2.7900000000000001E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -7172,7 +7182,7 @@
         <v>682</v>
       </c>
       <c r="B74">
-        <v>3.2199999999999999E-2</v>
+        <v>1.09E-2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -7180,7 +7190,7 @@
         <v>681</v>
       </c>
       <c r="B75">
-        <v>3.7600000000000001E-2</v>
+        <v>1.23E-2</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -7188,7 +7198,7 @@
         <v>680</v>
       </c>
       <c r="B76">
-        <v>4.41E-2</v>
+        <v>1.4200000000000001E-2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -7196,7 +7206,7 @@
         <v>679</v>
       </c>
       <c r="B77">
-        <v>5.1900000000000002E-2</v>
+        <v>1.6500000000000001E-2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -7204,7 +7214,7 @@
         <v>678</v>
       </c>
       <c r="B78">
-        <v>6.0999999999999999E-2</v>
+        <v>1.89E-2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -7212,7 +7222,7 @@
         <v>677</v>
       </c>
       <c r="B79">
-        <v>7.1599999999999997E-2</v>
+        <v>2.1899999999999999E-2</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -7220,7 +7230,7 @@
         <v>676</v>
       </c>
       <c r="B80">
-        <v>8.3500000000000005E-2</v>
+        <v>2.52E-2</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -7228,7 +7238,7 @@
         <v>675</v>
       </c>
       <c r="B81">
-        <v>9.7000000000000003E-2</v>
+        <v>2.9100000000000001E-2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -7236,7 +7246,7 @@
         <v>674</v>
       </c>
       <c r="B82">
-        <v>0.1119</v>
+        <v>3.3300000000000003E-2</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -7244,7 +7254,7 @@
         <v>673</v>
       </c>
       <c r="B83">
-        <v>0.1278</v>
+        <v>3.7699999999999997E-2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -7252,7 +7262,7 @@
         <v>672</v>
       </c>
       <c r="B84">
-        <v>0.14460000000000001</v>
+        <v>4.24E-2</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -7260,7 +7270,7 @@
         <v>671</v>
       </c>
       <c r="B85">
-        <v>0.1618</v>
+        <v>4.7399999999999998E-2</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -7268,7 +7278,7 @@
         <v>670</v>
       </c>
       <c r="B86">
-        <v>0.17860000000000001</v>
+        <v>5.21E-2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -7276,7 +7286,7 @@
         <v>669</v>
       </c>
       <c r="B87">
-        <v>0.19489999999999999</v>
+        <v>5.67E-2</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -7284,7 +7294,7 @@
         <v>668</v>
       </c>
       <c r="B88">
-        <v>0.20949999999999999</v>
+        <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -7292,7 +7302,7 @@
         <v>667</v>
       </c>
       <c r="B89">
-        <v>0.2223</v>
+        <v>6.4600000000000005E-2</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -7300,7 +7310,7 @@
         <v>666</v>
       </c>
       <c r="B90">
-        <v>0.23250000000000001</v>
+        <v>6.7400000000000002E-2</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -7308,7 +7318,7 @@
         <v>665</v>
       </c>
       <c r="B91">
-        <v>0.23980000000000001</v>
+        <v>6.9599999999999995E-2</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -7316,7 +7326,7 @@
         <v>664</v>
       </c>
       <c r="B92">
-        <v>0.24379999999999999</v>
+        <v>7.0699999999999999E-2</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -7324,7 +7334,7 @@
         <v>663</v>
       </c>
       <c r="B93">
-        <v>0.2442</v>
+        <v>7.0800000000000002E-2</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -7332,7 +7342,7 @@
         <v>662</v>
       </c>
       <c r="B94">
-        <v>0.24110000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -7340,7 +7350,7 @@
         <v>661</v>
       </c>
       <c r="B95">
-        <v>0.23469999999999999</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -7348,7 +7358,7 @@
         <v>660</v>
       </c>
       <c r="B96">
-        <v>0.22509999999999999</v>
+        <v>6.54E-2</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -7356,7 +7366,7 @@
         <v>659</v>
       </c>
       <c r="B97">
-        <v>0.21310000000000001</v>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -7364,7 +7374,7 @@
         <v>658</v>
       </c>
       <c r="B98">
-        <v>0.19919999999999999</v>
+        <v>5.8200000000000002E-2</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -7372,7 +7382,7 @@
         <v>657</v>
       </c>
       <c r="B99">
-        <v>0.1842</v>
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -7380,7 +7390,7 @@
         <v>656</v>
       </c>
       <c r="B100">
-        <v>0.16839999999999999</v>
+        <v>4.9399999999999999E-2</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -7388,7 +7398,7 @@
         <v>655</v>
       </c>
       <c r="B101">
-        <v>0.15290000000000001</v>
+        <v>4.5100000000000001E-2</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -7396,7 +7406,7 @@
         <v>654</v>
       </c>
       <c r="B102">
-        <v>0.13800000000000001</v>
+        <v>4.0899999999999999E-2</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -7404,7 +7414,7 @@
         <v>653</v>
       </c>
       <c r="B103">
-        <v>0.1239</v>
+        <v>3.6900000000000002E-2</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -7412,7 +7422,7 @@
         <v>652</v>
       </c>
       <c r="B104">
-        <v>0.1111</v>
+        <v>3.3300000000000003E-2</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -7420,7 +7430,7 @@
         <v>651</v>
       </c>
       <c r="B105">
-        <v>9.9400000000000002E-2</v>
+        <v>2.9899999999999999E-2</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -7428,7 +7438,7 @@
         <v>650</v>
       </c>
       <c r="B106">
-        <v>8.9099999999999999E-2</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -7436,7 +7446,7 @@
         <v>649</v>
       </c>
       <c r="B107">
-        <v>0.08</v>
+        <v>2.4500000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -7444,7 +7454,7 @@
         <v>648</v>
       </c>
       <c r="B108">
-        <v>7.22E-2</v>
+        <v>2.23E-2</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -7452,7 +7462,7 @@
         <v>647</v>
       </c>
       <c r="B109">
-        <v>6.5600000000000006E-2</v>
+        <v>2.0500000000000001E-2</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -7460,7 +7470,7 @@
         <v>646</v>
       </c>
       <c r="B110">
-        <v>0.06</v>
+        <v>1.89E-2</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -7468,7 +7478,7 @@
         <v>645</v>
       </c>
       <c r="B111">
-        <v>5.5300000000000002E-2</v>
+        <v>1.7600000000000001E-2</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -7476,7 +7486,7 @@
         <v>644</v>
       </c>
       <c r="B112">
-        <v>5.1400000000000001E-2</v>
+        <v>1.6500000000000001E-2</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -7484,7 +7494,7 @@
         <v>643</v>
       </c>
       <c r="B113">
-        <v>4.8300000000000003E-2</v>
+        <v>1.5599999999999999E-2</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -7492,7 +7502,7 @@
         <v>642</v>
       </c>
       <c r="B114">
-        <v>4.5600000000000002E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -7500,7 +7510,7 @@
         <v>641</v>
       </c>
       <c r="B115">
-        <v>4.3700000000000003E-2</v>
+        <v>1.44E-2</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -7508,7 +7518,7 @@
         <v>640</v>
       </c>
       <c r="B116">
-        <v>4.2099999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -7516,7 +7526,7 @@
         <v>639</v>
       </c>
       <c r="B117">
-        <v>4.0899999999999999E-2</v>
+        <v>1.37E-2</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -7524,7 +7534,7 @@
         <v>638</v>
       </c>
       <c r="B118">
-        <v>4.02E-2</v>
+        <v>1.35E-2</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -7532,7 +7542,7 @@
         <v>637</v>
       </c>
       <c r="B119">
-        <v>3.9800000000000002E-2</v>
+        <v>1.35E-2</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -7540,7 +7550,7 @@
         <v>636</v>
       </c>
       <c r="B120">
-        <v>3.9800000000000002E-2</v>
+        <v>1.34E-2</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -7548,7 +7558,7 @@
         <v>635</v>
       </c>
       <c r="B121">
-        <v>3.9899999999999998E-2</v>
+        <v>1.35E-2</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -7556,7 +7566,7 @@
         <v>634</v>
       </c>
       <c r="B122">
-        <v>4.0399999999999998E-2</v>
+        <v>1.37E-2</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -7564,7 +7574,7 @@
         <v>633</v>
       </c>
       <c r="B123">
-        <v>4.1000000000000002E-2</v>
+        <v>1.38E-2</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -7572,7 +7582,7 @@
         <v>632</v>
       </c>
       <c r="B124">
-        <v>4.1799999999999997E-2</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -7580,7 +7590,7 @@
         <v>631</v>
       </c>
       <c r="B125">
-        <v>4.2799999999999998E-2</v>
+        <v>1.43E-2</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -7588,7 +7598,7 @@
         <v>630</v>
       </c>
       <c r="B126">
-        <v>4.3999999999999997E-2</v>
+        <v>1.47E-2</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -7596,7 +7606,7 @@
         <v>629</v>
       </c>
       <c r="B127">
-        <v>4.5199999999999997E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -7604,7 +7614,7 @@
         <v>628</v>
       </c>
       <c r="B128">
-        <v>4.65E-2</v>
+        <v>1.54E-2</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -7612,7 +7622,7 @@
         <v>627</v>
       </c>
       <c r="B129">
-        <v>4.7699999999999999E-2</v>
+        <v>1.5699999999999999E-2</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -7620,7 +7630,7 @@
         <v>626</v>
       </c>
       <c r="B130">
-        <v>4.9000000000000002E-2</v>
+        <v>1.61E-2</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -7628,7 +7638,7 @@
         <v>625</v>
       </c>
       <c r="B131">
-        <v>5.0099999999999999E-2</v>
+        <v>1.6400000000000001E-2</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -7636,7 +7646,7 @@
         <v>624</v>
       </c>
       <c r="B132">
-        <v>5.1200000000000002E-2</v>
+        <v>1.67E-2</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -7644,7 +7654,7 @@
         <v>623</v>
       </c>
       <c r="B133">
-        <v>5.2400000000000002E-2</v>
+        <v>1.7100000000000001E-2</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -7652,7 +7662,7 @@
         <v>622</v>
       </c>
       <c r="B134">
-        <v>5.3100000000000001E-2</v>
+        <v>1.7299999999999999E-2</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -7660,7 +7670,7 @@
         <v>621</v>
       </c>
       <c r="B135">
-        <v>5.3699999999999998E-2</v>
+        <v>1.7500000000000002E-2</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -7668,7 +7678,7 @@
         <v>620</v>
       </c>
       <c r="B136">
-        <v>5.4300000000000001E-2</v>
+        <v>1.7600000000000001E-2</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -7676,7 +7686,7 @@
         <v>619</v>
       </c>
       <c r="B137">
-        <v>5.4600000000000003E-2</v>
+        <v>1.77E-2</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -7684,7 +7694,7 @@
         <v>618</v>
       </c>
       <c r="B138">
-        <v>5.4800000000000001E-2</v>
+        <v>1.78E-2</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -7692,7 +7702,7 @@
         <v>617</v>
       </c>
       <c r="B139">
-        <v>5.4899999999999997E-2</v>
+        <v>1.7899999999999999E-2</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -7700,7 +7710,7 @@
         <v>616</v>
       </c>
       <c r="B140">
-        <v>5.4699999999999999E-2</v>
+        <v>1.78E-2</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -7708,7 +7718,7 @@
         <v>615</v>
       </c>
       <c r="B141">
-        <v>5.45E-2</v>
+        <v>1.77E-2</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -7716,7 +7726,7 @@
         <v>614</v>
       </c>
       <c r="B142">
-        <v>5.3999999999999999E-2</v>
+        <v>1.7600000000000001E-2</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -7724,7 +7734,7 @@
         <v>613</v>
       </c>
       <c r="B143">
-        <v>5.3400000000000003E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -7732,7 +7742,7 @@
         <v>612</v>
       </c>
       <c r="B144">
-        <v>5.2699999999999997E-2</v>
+        <v>1.72E-2</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -7740,7 +7750,7 @@
         <v>611</v>
       </c>
       <c r="B145">
-        <v>5.1999999999999998E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -7748,7 +7758,7 @@
         <v>610</v>
       </c>
       <c r="B146">
-        <v>5.0900000000000001E-2</v>
+        <v>1.67E-2</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -7756,7 +7766,7 @@
         <v>609</v>
       </c>
       <c r="B147">
-        <v>4.9799999999999997E-2</v>
+        <v>1.6500000000000001E-2</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -7764,7 +7774,7 @@
         <v>608</v>
       </c>
       <c r="B148">
-        <v>4.8500000000000001E-2</v>
+        <v>1.61E-2</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -7772,7 +7782,7 @@
         <v>607</v>
       </c>
       <c r="B149">
-        <v>4.7199999999999999E-2</v>
+        <v>1.5699999999999999E-2</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -7780,7 +7790,7 @@
         <v>606</v>
       </c>
       <c r="B150">
-        <v>4.58E-2</v>
+        <v>1.5299999999999999E-2</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -7788,7 +7798,7 @@
         <v>605</v>
       </c>
       <c r="B151">
-        <v>4.4400000000000002E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -7796,7 +7806,7 @@
         <v>604</v>
       </c>
       <c r="B152">
-        <v>4.2900000000000001E-2</v>
+        <v>1.4500000000000001E-2</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -7804,7 +7814,7 @@
         <v>603</v>
       </c>
       <c r="B153">
-        <v>4.1399999999999999E-2</v>
+        <v>1.41E-2</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -7812,7 +7822,7 @@
         <v>602</v>
       </c>
       <c r="B154">
-        <v>0.04</v>
+        <v>1.37E-2</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -7820,7 +7830,7 @@
         <v>601</v>
       </c>
       <c r="B155">
-        <v>3.8600000000000002E-2</v>
+        <v>1.3299999999999999E-2</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -7828,7 +7838,7 @@
         <v>600</v>
       </c>
       <c r="B156">
-        <v>3.7199999999999997E-2</v>
+        <v>1.29E-2</v>
       </c>
     </row>
   </sheetData>
@@ -7837,16 +7847,18 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208DD4D1-CCBD-4B3E-BEBB-CF865DED5A52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C5081A-A4AD-40B1-8D8F-60F168488ABA}">
   <dimension ref="A2:B156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -7862,7 +7874,7 @@
         <v>750</v>
       </c>
       <c r="B6">
-        <v>1.2999999999999999E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -7870,7 +7882,7 @@
         <v>749</v>
       </c>
       <c r="B7">
-        <v>1.4E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7878,7 +7890,7 @@
         <v>748</v>
       </c>
       <c r="B8">
-        <v>1.5E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -7886,7 +7898,7 @@
         <v>747</v>
       </c>
       <c r="B9">
-        <v>1.5E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -7894,7 +7906,7 @@
         <v>746</v>
       </c>
       <c r="B10">
-        <v>1.6000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -7902,7 +7914,7 @@
         <v>745</v>
       </c>
       <c r="B11">
-        <v>1.6000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -7910,7 +7922,7 @@
         <v>744</v>
       </c>
       <c r="B12">
-        <v>1.6000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -7918,7 +7930,7 @@
         <v>743</v>
       </c>
       <c r="B13">
-        <v>1.6999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -7926,7 +7938,7 @@
         <v>742</v>
       </c>
       <c r="B14">
-        <v>1.6000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -7934,7 +7946,7 @@
         <v>741</v>
       </c>
       <c r="B15">
-        <v>1.6000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -7942,7 +7954,7 @@
         <v>740</v>
       </c>
       <c r="B16">
-        <v>1.6000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -7950,7 +7962,7 @@
         <v>739</v>
       </c>
       <c r="B17">
-        <v>1.6999999999999999E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -7966,7 +7978,7 @@
         <v>737</v>
       </c>
       <c r="B19">
-        <v>1.6000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -7982,7 +7994,7 @@
         <v>735</v>
       </c>
       <c r="B21">
-        <v>1.6999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -7990,7 +8002,7 @@
         <v>734</v>
       </c>
       <c r="B22">
-        <v>1.6999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -7998,7 +8010,7 @@
         <v>733</v>
       </c>
       <c r="B23">
-        <v>1.9E-3</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -8006,7 +8018,7 @@
         <v>732</v>
       </c>
       <c r="B24">
-        <v>2E-3</v>
+        <v>1.4E-3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -8014,7 +8026,7 @@
         <v>731</v>
       </c>
       <c r="B25">
-        <v>2.0999999999999999E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -8022,7 +8034,7 @@
         <v>730</v>
       </c>
       <c r="B26">
-        <v>2.2000000000000001E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -8030,7 +8042,7 @@
         <v>729</v>
       </c>
       <c r="B27">
-        <v>2.3999999999999998E-3</v>
+        <v>1.4E-3</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -8038,7 +8050,7 @@
         <v>728</v>
       </c>
       <c r="B28">
-        <v>2.3999999999999998E-3</v>
+        <v>1.4E-3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -8046,7 +8058,7 @@
         <v>727</v>
       </c>
       <c r="B29">
-        <v>2.3999999999999998E-3</v>
+        <v>1.4E-3</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -8054,7 +8066,7 @@
         <v>726</v>
       </c>
       <c r="B30">
-        <v>2.5000000000000001E-3</v>
+        <v>1.4E-3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -8062,7 +8074,7 @@
         <v>725</v>
       </c>
       <c r="B31">
-        <v>2.5000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -8070,7 +8082,7 @@
         <v>724</v>
       </c>
       <c r="B32">
-        <v>2.5999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -8078,7 +8090,7 @@
         <v>723</v>
       </c>
       <c r="B33">
-        <v>2.5999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -8086,7 +8098,7 @@
         <v>722</v>
       </c>
       <c r="B34">
-        <v>2.5999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -8094,7 +8106,7 @@
         <v>721</v>
       </c>
       <c r="B35">
-        <v>2.7000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -8102,7 +8114,7 @@
         <v>720</v>
       </c>
       <c r="B36">
-        <v>2.7000000000000001E-3</v>
+        <v>1.4E-3</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -8110,7 +8122,7 @@
         <v>719</v>
       </c>
       <c r="B37">
-        <v>2.8E-3</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -8118,7 +8130,7 @@
         <v>718</v>
       </c>
       <c r="B38">
-        <v>2.8999999999999998E-3</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -8126,7 +8138,7 @@
         <v>717</v>
       </c>
       <c r="B39">
-        <v>2.8999999999999998E-3</v>
+        <v>1.4E-3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -8134,7 +8146,7 @@
         <v>716</v>
       </c>
       <c r="B40">
-        <v>3.0000000000000001E-3</v>
+        <v>1.4E-3</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -8142,7 +8154,7 @@
         <v>715</v>
       </c>
       <c r="B41">
-        <v>3.0999999999999999E-3</v>
+        <v>1.4E-3</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -8150,7 +8162,7 @@
         <v>714</v>
       </c>
       <c r="B42">
-        <v>3.2000000000000002E-3</v>
+        <v>1.4E-3</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -8158,7 +8170,7 @@
         <v>713</v>
       </c>
       <c r="B43">
-        <v>3.2000000000000002E-3</v>
+        <v>1.4E-3</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -8166,7 +8178,7 @@
         <v>712</v>
       </c>
       <c r="B44">
-        <v>3.3999999999999998E-3</v>
+        <v>1.4E-3</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -8174,7 +8186,7 @@
         <v>711</v>
       </c>
       <c r="B45">
-        <v>3.3999999999999998E-3</v>
+        <v>1.4E-3</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -8182,7 +8194,7 @@
         <v>710</v>
       </c>
       <c r="B46">
-        <v>3.5000000000000001E-3</v>
+        <v>1.4E-3</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -8190,7 +8202,7 @@
         <v>709</v>
       </c>
       <c r="B47">
-        <v>3.7000000000000002E-3</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -8198,7 +8210,7 @@
         <v>708</v>
       </c>
       <c r="B48">
-        <v>3.8E-3</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -8206,7 +8218,7 @@
         <v>707</v>
       </c>
       <c r="B49">
-        <v>3.8999999999999998E-3</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -8214,7 +8226,7 @@
         <v>706</v>
       </c>
       <c r="B50">
-        <v>4.0000000000000001E-3</v>
+        <v>1.4E-3</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -8222,7 +8234,7 @@
         <v>705</v>
       </c>
       <c r="B51">
-        <v>4.1999999999999997E-3</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -8230,7 +8242,7 @@
         <v>704</v>
       </c>
       <c r="B52">
-        <v>4.1999999999999997E-3</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -8238,7 +8250,7 @@
         <v>703</v>
       </c>
       <c r="B53">
-        <v>4.4000000000000003E-3</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -8246,7 +8258,7 @@
         <v>702</v>
       </c>
       <c r="B54">
-        <v>4.5999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -8254,7 +8266,7 @@
         <v>701</v>
       </c>
       <c r="B55">
-        <v>4.7999999999999996E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -8262,7 +8274,7 @@
         <v>700</v>
       </c>
       <c r="B56">
-        <v>5.0000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -8270,7 +8282,7 @@
         <v>699</v>
       </c>
       <c r="B57">
-        <v>5.3E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -8278,7 +8290,7 @@
         <v>698</v>
       </c>
       <c r="B58">
-        <v>5.5999999999999999E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -8286,7 +8298,7 @@
         <v>697</v>
       </c>
       <c r="B59">
-        <v>6.0000000000000001E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -8294,7 +8306,7 @@
         <v>696</v>
       </c>
       <c r="B60">
-        <v>6.4000000000000003E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -8302,7 +8314,7 @@
         <v>695</v>
       </c>
       <c r="B61">
-        <v>6.8999999999999999E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -8310,7 +8322,7 @@
         <v>694</v>
       </c>
       <c r="B62">
-        <v>7.4999999999999997E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -8318,7 +8330,7 @@
         <v>693</v>
       </c>
       <c r="B63">
-        <v>8.2000000000000007E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -8326,7 +8338,7 @@
         <v>692</v>
       </c>
       <c r="B64">
-        <v>9.1000000000000004E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -8334,7 +8346,7 @@
         <v>691</v>
       </c>
       <c r="B65">
-        <v>1.01E-2</v>
+        <v>2.0999999999999999E-3</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -8342,7 +8354,7 @@
         <v>690</v>
       </c>
       <c r="B66">
-        <v>1.14E-2</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -8350,7 +8362,7 @@
         <v>689</v>
       </c>
       <c r="B67">
-        <v>1.2999999999999999E-2</v>
+        <v>2.3999999999999998E-3</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -8358,7 +8370,7 @@
         <v>688</v>
       </c>
       <c r="B68">
-        <v>1.49E-2</v>
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -8366,7 +8378,7 @@
         <v>687</v>
       </c>
       <c r="B69">
-        <v>1.7299999999999999E-2</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -8374,7 +8386,7 @@
         <v>686</v>
       </c>
       <c r="B70">
-        <v>2.0400000000000001E-2</v>
+        <v>3.3E-3</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -8382,7 +8394,7 @@
         <v>685</v>
       </c>
       <c r="B71">
-        <v>2.41E-2</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -8390,7 +8402,7 @@
         <v>684</v>
       </c>
       <c r="B72">
-        <v>2.86E-2</v>
+        <v>4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -8398,7 +8410,7 @@
         <v>683</v>
       </c>
       <c r="B73">
-        <v>3.44E-2</v>
+        <v>4.7999999999999996E-3</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -8406,7 +8418,7 @@
         <v>682</v>
       </c>
       <c r="B74">
-        <v>4.1200000000000001E-2</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -8414,7 +8426,7 @@
         <v>681</v>
       </c>
       <c r="B75">
-        <v>4.9299999999999997E-2</v>
+        <v>6.4000000000000003E-3</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -8422,7 +8434,7 @@
         <v>680</v>
       </c>
       <c r="B76">
-        <v>5.9299999999999999E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -8430,7 +8442,7 @@
         <v>679</v>
       </c>
       <c r="B77">
-        <v>7.1300000000000002E-2</v>
+        <v>8.8999999999999999E-3</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -8438,7 +8450,7 @@
         <v>678</v>
       </c>
       <c r="B78">
-        <v>8.5400000000000004E-2</v>
+        <v>1.03E-2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -8446,7 +8458,7 @@
         <v>677</v>
       </c>
       <c r="B79">
-        <v>0.1017</v>
+        <v>1.21E-2</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -8454,7 +8466,7 @@
         <v>676</v>
       </c>
       <c r="B80">
-        <v>0.12039999999999999</v>
+        <v>1.41E-2</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -8462,7 +8474,7 @@
         <v>675</v>
       </c>
       <c r="B81">
-        <v>0.14130000000000001</v>
+        <v>1.6400000000000001E-2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -8470,7 +8482,7 @@
         <v>674</v>
       </c>
       <c r="B82">
-        <v>0.16450000000000001</v>
+        <v>1.89E-2</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -8478,7 +8490,7 @@
         <v>673</v>
       </c>
       <c r="B83">
-        <v>0.1893</v>
+        <v>2.1399999999999999E-2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -8486,7 +8498,7 @@
         <v>672</v>
       </c>
       <c r="B84">
-        <v>0.2157</v>
+        <v>2.4199999999999999E-2</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -8494,7 +8506,7 @@
         <v>671</v>
       </c>
       <c r="B85">
-        <v>0.24299999999999999</v>
+        <v>2.7099999999999999E-2</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -8502,7 +8514,7 @@
         <v>670</v>
       </c>
       <c r="B86">
-        <v>0.26989999999999997</v>
+        <v>2.98E-2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -8510,7 +8522,7 @@
         <v>669</v>
       </c>
       <c r="B87">
-        <v>0.29570000000000002</v>
+        <v>3.2500000000000001E-2</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -8518,7 +8530,7 @@
         <v>668</v>
       </c>
       <c r="B88">
-        <v>0.31900000000000001</v>
+        <v>3.5099999999999999E-2</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -8526,7 +8538,7 @@
         <v>667</v>
       </c>
       <c r="B89">
-        <v>0.33939999999999998</v>
+        <v>3.7199999999999997E-2</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -8534,7 +8546,7 @@
         <v>666</v>
       </c>
       <c r="B90">
-        <v>0.35580000000000001</v>
+        <v>3.8699999999999998E-2</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -8542,7 +8554,7 @@
         <v>665</v>
       </c>
       <c r="B91">
-        <v>0.3679</v>
+        <v>3.9899999999999998E-2</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -8550,7 +8562,7 @@
         <v>664</v>
       </c>
       <c r="B92">
-        <v>0.37459999999999999</v>
+        <v>4.0500000000000001E-2</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -8558,7 +8570,7 @@
         <v>663</v>
       </c>
       <c r="B93">
-        <v>0.37569999999999998</v>
+        <v>4.0599999999999997E-2</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -8566,7 +8578,7 @@
         <v>662</v>
       </c>
       <c r="B94">
-        <v>0.37109999999999999</v>
+        <v>4.0099999999999997E-2</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -8574,7 +8586,7 @@
         <v>661</v>
       </c>
       <c r="B95">
-        <v>0.36130000000000001</v>
+        <v>3.9E-2</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -8582,7 +8594,7 @@
         <v>660</v>
       </c>
       <c r="B96">
-        <v>0.34649999999999997</v>
+        <v>3.7400000000000003E-2</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -8590,7 +8602,7 @@
         <v>659</v>
       </c>
       <c r="B97">
-        <v>0.32750000000000001</v>
+        <v>3.5299999999999998E-2</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -8598,7 +8610,7 @@
         <v>658</v>
       </c>
       <c r="B98">
-        <v>0.30570000000000003</v>
+        <v>3.3099999999999997E-2</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -8606,7 +8618,7 @@
         <v>657</v>
       </c>
       <c r="B99">
-        <v>0.28170000000000001</v>
+        <v>3.0599999999999999E-2</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -8614,7 +8626,7 @@
         <v>656</v>
       </c>
       <c r="B100">
-        <v>0.25679999999999997</v>
+        <v>2.7900000000000001E-2</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -8622,7 +8634,7 @@
         <v>655</v>
       </c>
       <c r="B101">
-        <v>0.2324</v>
+        <v>2.53E-2</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -8630,7 +8642,7 @@
         <v>654</v>
       </c>
       <c r="B102">
-        <v>0.20880000000000001</v>
+        <v>2.29E-2</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -8638,7 +8650,7 @@
         <v>653</v>
       </c>
       <c r="B103">
-        <v>0.1865</v>
+        <v>2.06E-2</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -8646,7 +8658,7 @@
         <v>652</v>
       </c>
       <c r="B104">
-        <v>0.16600000000000001</v>
+        <v>1.8499999999999999E-2</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -8654,7 +8666,7 @@
         <v>651</v>
       </c>
       <c r="B105">
-        <v>0.14729999999999999</v>
+        <v>1.6500000000000001E-2</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -8662,7 +8674,7 @@
         <v>650</v>
       </c>
       <c r="B106">
-        <v>0.1308</v>
+        <v>1.4800000000000001E-2</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -8670,7 +8682,7 @@
         <v>649</v>
       </c>
       <c r="B107">
-        <v>0.11650000000000001</v>
+        <v>1.3299999999999999E-2</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -8678,7 +8690,7 @@
         <v>648</v>
       </c>
       <c r="B108">
-        <v>0.1041</v>
+        <v>1.21E-2</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -8686,7 +8698,7 @@
         <v>647</v>
       </c>
       <c r="B109">
-        <v>9.35E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -8694,7 +8706,7 @@
         <v>646</v>
       </c>
       <c r="B110">
-        <v>8.4599999999999995E-2</v>
+        <v>1.01E-2</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -8702,7 +8714,7 @@
         <v>645</v>
       </c>
       <c r="B111">
-        <v>7.7299999999999994E-2</v>
+        <v>9.4000000000000004E-3</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -8710,7 +8722,7 @@
         <v>644</v>
       </c>
       <c r="B112">
-        <v>7.1199999999999999E-2</v>
+        <v>8.6E-3</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -8718,7 +8730,7 @@
         <v>643</v>
       </c>
       <c r="B113">
-        <v>6.6100000000000006E-2</v>
+        <v>8.2000000000000007E-3</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -8726,7 +8738,7 @@
         <v>642</v>
       </c>
       <c r="B114">
-        <v>6.2E-2</v>
+        <v>7.7000000000000002E-3</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -8734,7 +8746,7 @@
         <v>641</v>
       </c>
       <c r="B115">
-        <v>5.8900000000000001E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -8742,7 +8754,7 @@
         <v>640</v>
       </c>
       <c r="B116">
-        <v>5.6399999999999999E-2</v>
+        <v>7.1999999999999998E-3</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -8750,7 +8762,7 @@
         <v>639</v>
       </c>
       <c r="B117">
-        <v>5.4600000000000003E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -8758,7 +8770,7 @@
         <v>638</v>
       </c>
       <c r="B118">
-        <v>5.3499999999999999E-2</v>
+        <v>6.8999999999999999E-3</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -8766,7 +8778,7 @@
         <v>637</v>
       </c>
       <c r="B119">
-        <v>5.2900000000000003E-2</v>
+        <v>6.7999999999999996E-3</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -8774,7 +8786,7 @@
         <v>636</v>
       </c>
       <c r="B120">
-        <v>5.2699999999999997E-2</v>
+        <v>6.7999999999999996E-3</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -8782,7 +8794,7 @@
         <v>635</v>
       </c>
       <c r="B121">
-        <v>5.2999999999999999E-2</v>
+        <v>6.7999999999999996E-3</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -8790,7 +8802,7 @@
         <v>634</v>
       </c>
       <c r="B122">
-        <v>5.3699999999999998E-2</v>
+        <v>6.8999999999999999E-3</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -8798,7 +8810,7 @@
         <v>633</v>
       </c>
       <c r="B123">
-        <v>5.4600000000000003E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -8806,7 +8818,7 @@
         <v>632</v>
       </c>
       <c r="B124">
-        <v>5.5899999999999998E-2</v>
+        <v>7.1999999999999998E-3</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -8814,7 +8826,7 @@
         <v>631</v>
       </c>
       <c r="B125">
-        <v>5.74E-2</v>
+        <v>7.4000000000000003E-3</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -8822,7 +8834,7 @@
         <v>630</v>
       </c>
       <c r="B126">
-        <v>5.9200000000000003E-2</v>
+        <v>7.6E-3</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -8830,7 +8842,7 @@
         <v>629</v>
       </c>
       <c r="B127">
-        <v>6.1100000000000002E-2</v>
+        <v>7.7000000000000002E-3</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -8838,7 +8850,7 @@
         <v>628</v>
       </c>
       <c r="B128">
-        <v>6.3100000000000003E-2</v>
+        <v>7.9000000000000008E-3</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -8846,7 +8858,7 @@
         <v>627</v>
       </c>
       <c r="B129">
-        <v>6.5100000000000005E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -8854,7 +8866,7 @@
         <v>626</v>
       </c>
       <c r="B130">
-        <v>6.7100000000000007E-2</v>
+        <v>8.3999999999999995E-3</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -8862,7 +8874,7 @@
         <v>625</v>
       </c>
       <c r="B131">
-        <v>6.8900000000000003E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -8870,7 +8882,7 @@
         <v>624</v>
       </c>
       <c r="B132">
-        <v>7.0699999999999999E-2</v>
+        <v>8.6999999999999994E-3</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -8878,7 +8890,7 @@
         <v>623</v>
       </c>
       <c r="B133">
-        <v>7.2300000000000003E-2</v>
+        <v>8.8000000000000005E-3</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -8886,7 +8898,7 @@
         <v>622</v>
       </c>
       <c r="B134">
-        <v>7.3599999999999999E-2</v>
+        <v>9.1000000000000004E-3</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -8894,7 +8906,7 @@
         <v>621</v>
       </c>
       <c r="B135">
-        <v>7.46E-2</v>
+        <v>9.1000000000000004E-3</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -8902,7 +8914,7 @@
         <v>620</v>
       </c>
       <c r="B136">
-        <v>7.5399999999999995E-2</v>
+        <v>9.1999999999999998E-3</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -8910,7 +8922,7 @@
         <v>619</v>
       </c>
       <c r="B137">
-        <v>7.5899999999999995E-2</v>
+        <v>9.1999999999999998E-3</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -8918,7 +8930,7 @@
         <v>618</v>
       </c>
       <c r="B138">
-        <v>7.6200000000000004E-2</v>
+        <v>9.2999999999999992E-3</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -8926,7 +8938,7 @@
         <v>617</v>
       </c>
       <c r="B139">
-        <v>7.6300000000000007E-2</v>
+        <v>9.2999999999999992E-3</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -8934,7 +8946,7 @@
         <v>616</v>
       </c>
       <c r="B140">
-        <v>7.5999999999999998E-2</v>
+        <v>9.2999999999999992E-3</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -8942,7 +8954,7 @@
         <v>615</v>
       </c>
       <c r="B141">
-        <v>7.5499999999999998E-2</v>
+        <v>9.1999999999999998E-3</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -8950,7 +8962,7 @@
         <v>614</v>
       </c>
       <c r="B142">
-        <v>7.4899999999999994E-2</v>
+        <v>9.1000000000000004E-3</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -8958,7 +8970,7 @@
         <v>613</v>
       </c>
       <c r="B143">
-        <v>7.3999999999999996E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -8966,7 +8978,7 @@
         <v>612</v>
       </c>
       <c r="B144">
-        <v>7.2900000000000006E-2</v>
+        <v>8.8999999999999999E-3</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -8974,7 +8986,7 @@
         <v>611</v>
       </c>
       <c r="B145">
-        <v>7.1599999999999997E-2</v>
+        <v>8.8000000000000005E-3</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -8982,7 +8994,7 @@
         <v>610</v>
       </c>
       <c r="B146">
-        <v>7.0000000000000007E-2</v>
+        <v>8.6E-3</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -8990,7 +9002,7 @@
         <v>609</v>
       </c>
       <c r="B147">
-        <v>6.8099999999999994E-2</v>
+        <v>8.3999999999999995E-3</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -8998,7 +9010,7 @@
         <v>608</v>
       </c>
       <c r="B148">
-        <v>6.6199999999999995E-2</v>
+        <v>8.2000000000000007E-3</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -9006,7 +9018,7 @@
         <v>607</v>
       </c>
       <c r="B149">
-        <v>6.4100000000000004E-2</v>
+        <v>7.9000000000000008E-3</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -9014,7 +9026,7 @@
         <v>606</v>
       </c>
       <c r="B150">
-        <v>6.1899999999999997E-2</v>
+        <v>7.7000000000000002E-3</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -9022,7 +9034,7 @@
         <v>605</v>
       </c>
       <c r="B151">
-        <v>5.9700000000000003E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -9030,7 +9042,7 @@
         <v>604</v>
       </c>
       <c r="B152">
-        <v>5.7200000000000001E-2</v>
+        <v>7.1999999999999998E-3</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -9038,7 +9050,7 @@
         <v>603</v>
       </c>
       <c r="B153">
-        <v>5.4800000000000001E-2</v>
+        <v>6.8999999999999999E-3</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -9046,7 +9058,7 @@
         <v>602</v>
       </c>
       <c r="B154">
-        <v>5.2499999999999998E-2</v>
+        <v>6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -9054,7 +9066,7 @@
         <v>601</v>
       </c>
       <c r="B155">
-        <v>5.0299999999999997E-2</v>
+        <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -9062,7 +9074,7 @@
         <v>600</v>
       </c>
       <c r="B156">
-        <v>4.8099999999999997E-2</v>
+        <v>6.1999999999999998E-3</v>
       </c>
     </row>
   </sheetData>
